--- a/Data_preparation/datasets/final_data/AMPLIFON_SPA.xlsx
+++ b/Data_preparation/datasets/final_data/AMPLIFON_SPA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -148,67 +148,7 @@
     <t>USD</t>
   </si>
   <si>
-    <t>2337 TT</t>
-  </si>
-  <si>
-    <t>005930 KS</t>
-  </si>
-  <si>
-    <t>CCC LN</t>
-  </si>
-  <si>
-    <t>UBI FP</t>
-  </si>
-  <si>
-    <t>IFX GR</t>
-  </si>
-  <si>
-    <t>XRO AU</t>
-  </si>
-  <si>
     <t>AMP IM</t>
-  </si>
-  <si>
-    <t>6701 JP</t>
-  </si>
-  <si>
-    <t>2353 TT</t>
-  </si>
-  <si>
-    <t>5803 JP</t>
-  </si>
-  <si>
-    <t>TIETO FH</t>
-  </si>
-  <si>
-    <t>2344 TT</t>
-  </si>
-  <si>
-    <t>3665 TT</t>
-  </si>
-  <si>
-    <t>WKL NA</t>
-  </si>
-  <si>
-    <t>3661 TT</t>
-  </si>
-  <si>
-    <t>EXPN LN</t>
-  </si>
-  <si>
-    <t>6954 JP</t>
-  </si>
-  <si>
-    <t>ENR GR</t>
-  </si>
-  <si>
-    <t>3443 TT</t>
-  </si>
-  <si>
-    <t>6526 JP</t>
-  </si>
-  <si>
-    <t>6588 JP</t>
   </si>
   <si>
     <t>EUR</t>
@@ -718,19 +658,19 @@
         <v>42094</v>
       </c>
       <c r="D2">
-        <v>13.19506057834629</v>
+        <v>6.818030239208493</v>
       </c>
       <c r="E2">
-        <v>13.02006114768982</v>
+        <v>7.466091287612915</v>
       </c>
       <c r="F2">
-        <v>13.47506251467241</v>
+        <v>7.57856470959306</v>
       </c>
       <c r="G2">
-        <v>12.49505783111611</v>
+        <v>6.678777844528065</v>
       </c>
       <c r="H2">
-        <v>1853869000</v>
+        <v>219937482</v>
       </c>
       <c r="I2" t="s">
         <v>44</v>
@@ -820,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="AL2" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM2">
         <v>-1.503630178542924</v>
@@ -846,22 +786,22 @@
         <v>42185</v>
       </c>
       <c r="D3">
-        <v>22799.20300311841</v>
+        <v>7.54385115263892</v>
       </c>
       <c r="E3">
-        <v>21306.82615039063</v>
+        <v>8.217409291267396</v>
       </c>
       <c r="F3">
-        <v>23572.36209549545</v>
+        <v>8.298236062349181</v>
       </c>
       <c r="G3">
-        <v>21127.02171030295</v>
+        <v>7.279816485628737</v>
       </c>
       <c r="H3">
-        <v>5876745450</v>
+        <v>219937482</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>1734894242.1213</v>
@@ -948,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="AL3" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM3">
         <v>1.192461193975384</v>
@@ -974,22 +914,22 @@
         <v>42277</v>
       </c>
       <c r="D4">
-        <v>872.6184122529871</v>
+        <v>7.371419609287148</v>
       </c>
       <c r="E4">
-        <v>873.1955408325196</v>
+        <v>7.624677071094514</v>
       </c>
       <c r="F4">
-        <v>888.7780124798943</v>
+        <v>8.147358272109154</v>
       </c>
       <c r="G4">
-        <v>841.8343935468035</v>
+        <v>7.182823146007261</v>
       </c>
       <c r="H4">
-        <v>104878138</v>
+        <v>219937482</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>1709296778.12452</v>
@@ -1076,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="AL4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM4">
         <v>0.6166702257038928</v>
@@ -1102,22 +1042,22 @@
         <v>42369</v>
       </c>
       <c r="D5">
-        <v>31.383625</v>
+        <v>8.616154875617058</v>
       </c>
       <c r="E5">
-        <v>29.32416420555115</v>
+        <v>8.309012554168701</v>
       </c>
       <c r="F5">
-        <v>31.383625</v>
+        <v>8.729313168016388</v>
       </c>
       <c r="G5">
-        <v>25.72010947036743</v>
+        <v>7.867158616101376</v>
       </c>
       <c r="H5">
-        <v>134598631</v>
+        <v>219937482</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>2023945006.82543</v>
@@ -1204,7 +1144,7 @@
         <v>12401883</v>
       </c>
       <c r="AL5" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM5">
         <v>6.231340899914726</v>
@@ -1230,22 +1170,22 @@
         <v>42460</v>
       </c>
       <c r="D6">
-        <v>12.95815170700547</v>
+        <v>8.168912758415356</v>
       </c>
       <c r="E6">
-        <v>13.08984023857117</v>
+        <v>8.659262985229491</v>
       </c>
       <c r="F6">
-        <v>13.69033962100555</v>
+        <v>8.707759251861054</v>
       </c>
       <c r="G6">
-        <v>12.71057662465155</v>
+        <v>7.942597190057437</v>
       </c>
       <c r="H6">
-        <v>1299391231</v>
+        <v>219937482</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1929342945.81457</v>
@@ -1332,7 +1272,7 @@
         <v>0</v>
       </c>
       <c r="AL6" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM6">
         <v>34.44970965625718</v>
@@ -1358,22 +1298,22 @@
         <v>42551</v>
       </c>
       <c r="D7">
-        <v>20.23592973518372</v>
+        <v>9.146400617642279</v>
       </c>
       <c r="E7">
-        <v>21.67060947036743</v>
+        <v>9.660852238655091</v>
       </c>
       <c r="F7">
-        <v>21.83259097099304</v>
+        <v>9.709589804135543</v>
       </c>
       <c r="G7">
-        <v>19.43759911727905</v>
+        <v>8.891883023485843</v>
       </c>
       <c r="H7">
-        <v>168262866</v>
+        <v>219937482</v>
       </c>
       <c r="I7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>2129629532.8308</v>
@@ -1460,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM7">
         <v>0.5831415189108849</v>
@@ -1501,7 +1441,7 @@
         <v>219937482</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>2313795900.30589</v>
@@ -1588,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AL8" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM8">
         <v>1.187307200381653</v>
@@ -1614,22 +1554,22 @@
         <v>42735</v>
       </c>
       <c r="D9">
-        <v>618.9570490869983</v>
+        <v>9.834141682129564</v>
       </c>
       <c r="E9">
-        <v>521.1219026184082</v>
+        <v>10.13739686584473</v>
       </c>
       <c r="F9">
-        <v>660.8863975735369</v>
+        <v>10.2890249741433</v>
       </c>
       <c r="G9">
-        <v>515.1319956917598</v>
+        <v>9.113909975254812</v>
       </c>
       <c r="H9">
-        <v>1333460157</v>
+        <v>219937482</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>2290987397.45512</v>
@@ -1716,7 +1656,7 @@
         <v>13028977</v>
       </c>
       <c r="AL9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM9">
         <v>1.664823588168955</v>
@@ -1742,22 +1682,22 @@
         <v>42825</v>
       </c>
       <c r="D10">
-        <v>11.30339678918528</v>
+        <v>12.30350517535294</v>
       </c>
       <c r="E10">
-        <v>11.18565336894989</v>
+        <v>12.68257486152649</v>
       </c>
       <c r="F10">
-        <v>11.53888437825048</v>
+        <v>13.10496670901572</v>
       </c>
       <c r="G10">
-        <v>10.8716704159259</v>
+        <v>12.18436948995527</v>
       </c>
       <c r="H10">
-        <v>3006208000</v>
+        <v>219937482</v>
       </c>
       <c r="I10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>2861199968.72437</v>
@@ -1844,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="AL10" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM10">
         <v>0.974962391673454</v>
@@ -1870,22 +1810,22 @@
         <v>42916</v>
       </c>
       <c r="D11">
-        <v>930.7952226609096</v>
+        <v>12.37427390343443</v>
       </c>
       <c r="E11">
-        <v>917.9634751586914</v>
+        <v>13.22391672325135</v>
       </c>
       <c r="F11">
-        <v>1012.720995175073</v>
+        <v>13.38730901384999</v>
       </c>
       <c r="G11">
-        <v>866.6364851498182</v>
+        <v>12.0257031294518</v>
       </c>
       <c r="H11">
-        <v>275900103</v>
+        <v>219937482</v>
       </c>
       <c r="I11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2928584887.6284</v>
@@ -1972,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="AL11" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM11">
         <v>1.006733916898059</v>
@@ -1998,22 +1938,22 @@
         <v>43008</v>
       </c>
       <c r="D12">
-        <v>18.86818684636498</v>
+        <v>14.10623743308796</v>
       </c>
       <c r="E12">
-        <v>19.2411628112793</v>
+        <v>14.20427322769165</v>
       </c>
       <c r="F12">
-        <v>20.72575325261764</v>
+        <v>14.92320100302151</v>
       </c>
       <c r="G12">
-        <v>18.86818684636498</v>
+        <v>13.20213116546734</v>
       </c>
       <c r="H12">
-        <v>118401578</v>
+        <v>219937482</v>
       </c>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>3258209160.6948</v>
@@ -2100,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="AL12" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM12">
         <v>17.15265780790795</v>
@@ -2126,22 +2066,22 @@
         <v>43100</v>
       </c>
       <c r="D13">
-        <v>24.36754608677801</v>
+        <v>13.98641783335643</v>
       </c>
       <c r="E13">
-        <v>24.98113742256164</v>
+        <v>15.58766687583923</v>
       </c>
       <c r="F13">
-        <v>27.21140574230897</v>
+        <v>15.91445150429356</v>
       </c>
       <c r="G13">
-        <v>24.0207352740224</v>
+        <v>13.71409661709582</v>
       </c>
       <c r="H13">
-        <v>1299391231</v>
+        <v>219937482</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>3271559677.19295</v>
@@ -2228,7 +2168,7 @@
         <v>18967858</v>
       </c>
       <c r="AL13" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM13">
         <v>11.41094020365635</v>
@@ -2254,22 +2194,22 @@
         <v>43190</v>
       </c>
       <c r="D14">
-        <v>18.45757314406327</v>
+        <v>15.74016468467818</v>
       </c>
       <c r="E14">
-        <v>17.1458679599762</v>
+        <v>16.88391389846802</v>
       </c>
       <c r="F14">
-        <v>18.83234656884871</v>
+        <v>17.75534088152417</v>
       </c>
       <c r="G14">
-        <v>15.55308270730004</v>
+        <v>15.33712944530899</v>
       </c>
       <c r="H14">
-        <v>4500000193</v>
+        <v>219937482</v>
       </c>
       <c r="I14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>3659281312.0578</v>
@@ -2356,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AL14" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM14">
         <v>3.718511769101693</v>
@@ -2382,19 +2322,19 @@
         <v>43281</v>
       </c>
       <c r="D15">
-        <v>37.44873108618253</v>
+        <v>19.24017640628815</v>
       </c>
       <c r="E15">
-        <v>36.58783875274658</v>
+        <v>21.01720397758484</v>
       </c>
       <c r="F15">
-        <v>38.56788810488639</v>
+        <v>21.37919123042161</v>
       </c>
       <c r="G15">
-        <v>34.73692509297725</v>
+        <v>18.5491085012713</v>
       </c>
       <c r="H15">
-        <v>1853869000</v>
+        <v>219937482</v>
       </c>
       <c r="I15" t="s">
         <v>44</v>
@@ -2484,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AL15" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM15">
         <v>1.202974548880873</v>
@@ -2510,22 +2450,22 @@
         <v>43373</v>
       </c>
       <c r="D16">
-        <v>137.5325650948199</v>
+        <v>21.1378664584368</v>
       </c>
       <c r="E16">
-        <v>152.3011590118408</v>
+        <v>17.17794383239746</v>
       </c>
       <c r="F16">
-        <v>159.2239383115644</v>
+        <v>21.49985370041336</v>
       </c>
       <c r="G16">
-        <v>113.9951140339675</v>
+        <v>16.34427580100864</v>
       </c>
       <c r="H16">
-        <v>193969420</v>
+        <v>219937482</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>4962219851.924789</v>
@@ -2612,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AL16" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM16">
         <v>22.20692393528779</v>
@@ -2638,22 +2578,22 @@
         <v>43465</v>
       </c>
       <c r="D17">
-        <v>206.7603717690826</v>
+        <v>15.41188407413629</v>
       </c>
       <c r="E17">
-        <v>165.2236817016602</v>
+        <v>17.15600490665436</v>
       </c>
       <c r="F17">
-        <v>209.9909953690139</v>
+        <v>18.15421111786336</v>
       </c>
       <c r="G17">
-        <v>165.2236817016602</v>
+        <v>14.92923374449957</v>
       </c>
       <c r="H17">
-        <v>193969420</v>
+        <v>219937482</v>
       </c>
       <c r="I17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J17">
         <v>3548139087.5957</v>
@@ -2740,7 +2680,7 @@
         <v>18387044</v>
       </c>
       <c r="AL17" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM17">
         <v>-0.8597077160112101</v>
@@ -2766,22 +2706,22 @@
         <v>43555</v>
       </c>
       <c r="D18">
-        <v>1268.310006023214</v>
+        <v>19.13048471105132</v>
       </c>
       <c r="E18">
-        <v>1394.216919189453</v>
+        <v>18.79043446159363</v>
       </c>
       <c r="F18">
-        <v>1498.176755748733</v>
+        <v>19.72282659485873</v>
       </c>
       <c r="G18">
-        <v>1197.848339021925</v>
+        <v>18.24196874699424</v>
       </c>
       <c r="H18">
-        <v>104878138</v>
+        <v>219937482</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>4501010408.62252</v>
@@ -2868,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AL18" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM18">
         <v>2.611931379934484</v>
@@ -2894,22 +2834,22 @@
         <v>43646</v>
       </c>
       <c r="D19">
-        <v>46909.52164104707</v>
+        <v>22.89379922462279</v>
       </c>
       <c r="E19">
-        <v>44928.1268515625</v>
+        <v>24.61746521949768</v>
       </c>
       <c r="F19">
-        <v>47107.66111999553</v>
+        <v>24.90474288531016</v>
       </c>
       <c r="G19">
-        <v>43937.42945682022</v>
+        <v>22.05406499550658</v>
       </c>
       <c r="H19">
-        <v>5876745450</v>
+        <v>219937482</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>5256710397.818359</v>
@@ -2996,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="AL19" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM19">
         <v>2.318496207159425</v>
@@ -3022,22 +2962,22 @@
         <v>43738</v>
       </c>
       <c r="D20">
-        <v>70.30402277742479</v>
+        <v>24.86054465156417</v>
       </c>
       <c r="E20">
-        <v>68.96688168334961</v>
+        <v>24.88264341926574</v>
       </c>
       <c r="F20">
-        <v>70.74276808941683</v>
+        <v>25.58978712608036</v>
       </c>
       <c r="G20">
-        <v>64.95548231095034</v>
+        <v>22.36344080255696</v>
       </c>
       <c r="H20">
-        <v>229140423</v>
+        <v>219937482</v>
       </c>
       <c r="I20" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J20">
         <v>5791012536.26792</v>
@@ -3124,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="AL20" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM20">
         <v>-5.224069674899494</v>
@@ -3150,22 +3090,22 @@
         <v>43830</v>
       </c>
       <c r="D21">
-        <v>257.8329964679378</v>
+        <v>28.32996914892639</v>
       </c>
       <c r="E21">
-        <v>253.4349922637939</v>
+        <v>28.37416668128967</v>
       </c>
       <c r="F21">
-        <v>292.4672795755714</v>
+        <v>30.36300927364183</v>
       </c>
       <c r="G21">
-        <v>235.2932249217003</v>
+        <v>27.75541598038412</v>
       </c>
       <c r="H21">
-        <v>80995217</v>
+        <v>219937482</v>
       </c>
       <c r="I21" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>6613785057.82722</v>
@@ -3252,7 +3192,7 @@
         <v>19084715</v>
       </c>
       <c r="AL21" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM21">
         <v>2.888530931536963</v>
@@ -3278,22 +3218,22 @@
         <v>43921</v>
       </c>
       <c r="D22">
-        <v>14.35987247751827</v>
+        <v>20.38564811810943</v>
       </c>
       <c r="E22">
-        <v>18.78085252571106</v>
+        <v>23.10373340988159</v>
       </c>
       <c r="F22">
-        <v>19.86227483177186</v>
+        <v>24.1423523435255</v>
       </c>
       <c r="G22">
-        <v>13.95212297949352</v>
+        <v>19.39122461384688</v>
       </c>
       <c r="H22">
-        <v>1299391231</v>
+        <v>219937482</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J22">
         <v>4830898912.96389</v>
@@ -3380,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="AL22" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM22">
         <v>-2.847971846687011</v>
@@ -3406,22 +3346,22 @@
         <v>44012</v>
       </c>
       <c r="D23">
-        <v>1122.682585120727</v>
+        <v>26.19748950355944</v>
       </c>
       <c r="E23">
-        <v>1259.542938354492</v>
+        <v>31.98723620414734</v>
       </c>
       <c r="F23">
-        <v>1293.758026662933</v>
+        <v>32.19716818310549</v>
       </c>
       <c r="G23">
-        <v>1099.159711908674</v>
+        <v>25.65608231856206</v>
       </c>
       <c r="H23">
-        <v>1333460157</v>
+        <v>219937482</v>
       </c>
       <c r="I23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>6116728767.937711</v>
@@ -3508,7 +3448,7 @@
         <v>0</v>
       </c>
       <c r="AL23" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM23">
         <v>-2.210967975441509</v>
@@ -3534,22 +3474,22 @@
         <v>44104</v>
       </c>
       <c r="D24">
-        <v>14.77880914739032</v>
+        <v>33.76614587151871</v>
       </c>
       <c r="E24">
-        <v>17.95704768466949</v>
+        <v>34.48433901023864</v>
       </c>
       <c r="F24">
-        <v>20.02290166378595</v>
+        <v>36.18590630293183</v>
       </c>
       <c r="G24">
-        <v>14.67286878005579</v>
+        <v>31.99828437873951</v>
       </c>
       <c r="H24">
-        <v>4500000193</v>
+        <v>219937482</v>
       </c>
       <c r="I24" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>7915100735.71685</v>
@@ -3636,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM24">
         <v>19.6555078085713</v>
@@ -3677,7 +3617,7 @@
         <v>219937482</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>8842433143.159981</v>
@@ -3764,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="AL25" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM25">
         <v>1.11647222271192</v>
@@ -3790,22 +3730,22 @@
         <v>44286</v>
       </c>
       <c r="D26">
-        <v>2911.416905565497</v>
+        <v>35.2467261364133</v>
       </c>
       <c r="E26">
-        <v>3228.227164550781</v>
+        <v>38.81559691619873</v>
       </c>
       <c r="F26">
-        <v>3247.883275509722</v>
+        <v>41.31269857326466</v>
       </c>
       <c r="G26">
-        <v>2896.940735382299</v>
+        <v>35.13623440909827</v>
       </c>
       <c r="H26">
-        <v>913159452</v>
+        <v>219937482</v>
       </c>
       <c r="I26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>8247862761.4864</v>
@@ -3892,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="AL26" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM26">
         <v>22.48752209934489</v>
@@ -3933,7 +3873,7 @@
         <v>219937482</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J27">
         <v>10691544147.03258</v>
@@ -4020,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="AL27" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM27">
         <v>6.908688433217813</v>
@@ -4046,22 +3986,22 @@
         <v>44469</v>
       </c>
       <c r="D28">
-        <v>59.84004141235351</v>
+        <v>45.34316145360836</v>
       </c>
       <c r="E28">
-        <v>52.33110947036743</v>
+        <v>48.85589447784424</v>
       </c>
       <c r="F28">
-        <v>61.59868194198609</v>
+        <v>49.58956643099127</v>
       </c>
       <c r="G28">
-        <v>50.37578105926514</v>
+        <v>44.35381639078243</v>
       </c>
       <c r="H28">
-        <v>134598631</v>
+        <v>219937482</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>10648402604.15204</v>
@@ -4148,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="AL28" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM28">
         <v>-6.337237914255331</v>
@@ -4174,22 +4114,22 @@
         <v>44561</v>
       </c>
       <c r="D29">
-        <v>113.4567031103399</v>
+        <v>52.56871454342068</v>
       </c>
       <c r="E29">
-        <v>97.69401095581055</v>
+        <v>41.71925892257691</v>
       </c>
       <c r="F29">
-        <v>113.4567031103399</v>
+        <v>52.72434126806017</v>
       </c>
       <c r="G29">
-        <v>93.21203893338271</v>
+        <v>39.17364248002635</v>
       </c>
       <c r="H29">
-        <v>229140423</v>
+        <v>219937482</v>
       </c>
       <c r="I29" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>12312210899.95312</v>
@@ -4276,7 +4216,7 @@
         <v>19797427</v>
       </c>
       <c r="AL29" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM29">
         <v>-6.296592776881682</v>
@@ -4302,22 +4242,22 @@
         <v>44651</v>
       </c>
       <c r="D30">
-        <v>653.5223021794563</v>
+        <v>45.2319907425134</v>
       </c>
       <c r="E30">
-        <v>656.6947405395508</v>
+        <v>42.48628163528443</v>
       </c>
       <c r="F30">
-        <v>657.7522199929157</v>
+        <v>48.31119052847952</v>
       </c>
       <c r="G30">
-        <v>563.636548643447</v>
+        <v>40.78549359145937</v>
       </c>
       <c r="H30">
-        <v>275900103</v>
+        <v>219937482</v>
       </c>
       <c r="I30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>10521221675.40366</v>
@@ -4404,7 +4344,7 @@
         <v>0</v>
       </c>
       <c r="AL30" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM30">
         <v>1.856551230763891</v>
@@ -4430,22 +4370,22 @@
         <v>44742</v>
       </c>
       <c r="D31">
-        <v>1146.533268821023</v>
+        <v>32.38968839156712</v>
       </c>
       <c r="E31">
-        <v>1079.284682861328</v>
+        <v>36.09937187576294</v>
       </c>
       <c r="F31">
-        <v>1232.523263982599</v>
+        <v>36.79424025046118</v>
       </c>
       <c r="G31">
-        <v>1079.284682861328</v>
+        <v>30.6973549130117</v>
       </c>
       <c r="H31">
-        <v>1333460157</v>
+        <v>219937482</v>
       </c>
       <c r="I31" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>7501941729.32542</v>
@@ -4532,7 +4472,7 @@
         <v>0</v>
       </c>
       <c r="AL31" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM31">
         <v>6.987721932193331</v>
@@ -4558,22 +4498,22 @@
         <v>44834</v>
       </c>
       <c r="D32">
-        <v>4431.253348723354</v>
+        <v>29.71109614768372</v>
       </c>
       <c r="E32">
-        <v>4301.953671386719</v>
+        <v>28.17566701507569</v>
       </c>
       <c r="F32">
-        <v>4659.171424028611</v>
+        <v>31.14565756381653</v>
       </c>
       <c r="G32">
-        <v>4131.015114907777</v>
+        <v>26.05744924441982</v>
       </c>
       <c r="H32">
-        <v>933160187</v>
+        <v>219937482</v>
       </c>
       <c r="I32" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>6988060247.7504</v>
@@ -4660,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AL32" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM32">
         <v>2.843670660129448</v>
@@ -4686,22 +4626,22 @@
         <v>44926</v>
       </c>
       <c r="D33">
-        <v>20.44997411727906</v>
+        <v>31.21289817834415</v>
       </c>
       <c r="E33">
-        <v>22.12184097099304</v>
+        <v>28.32136231422425</v>
       </c>
       <c r="F33">
-        <v>22.86232026481629</v>
+        <v>31.64999013784059</v>
       </c>
       <c r="G33">
-        <v>19.76734394073486</v>
+        <v>28.04117472220619</v>
       </c>
       <c r="H33">
-        <v>795535712</v>
+        <v>219937482</v>
       </c>
       <c r="I33" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="J33">
         <v>7222794444.996</v>
@@ -4788,7 +4728,7 @@
         <v>15120833</v>
       </c>
       <c r="AL33" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM33">
         <v>2.063039605177583</v>
@@ -4814,22 +4754,22 @@
         <v>45016</v>
       </c>
       <c r="D34">
-        <v>5375.61069363049</v>
+        <v>35.63986455986611</v>
       </c>
       <c r="E34">
-        <v>5087.3741953125</v>
+        <v>37.29857476425171</v>
       </c>
       <c r="F34">
-        <v>5376.719295547097</v>
+        <v>37.99344314302753</v>
       </c>
       <c r="G34">
-        <v>4887.825850323124</v>
+        <v>35.19156479349999</v>
       </c>
       <c r="H34">
-        <v>933160187</v>
+        <v>219937482</v>
       </c>
       <c r="I34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>8293006112.83872</v>
@@ -4916,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="AL34" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM34">
         <v>-8.562196436661051</v>
@@ -4942,22 +4882,22 @@
         <v>45107</v>
       </c>
       <c r="D35">
-        <v>346.9689219983833</v>
+        <v>37.79821742317953</v>
       </c>
       <c r="E35">
-        <v>323.5855497741699</v>
+        <v>34.80284679603577</v>
       </c>
       <c r="F35">
-        <v>360.2120060943994</v>
+        <v>37.96776857514791</v>
       </c>
       <c r="G35">
-        <v>317.8341172066877</v>
+        <v>33.38993490251563</v>
       </c>
       <c r="H35">
-        <v>193969420</v>
+        <v>219937482</v>
       </c>
       <c r="I35" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>8758267816.76613</v>
@@ -5044,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="AL35" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM35">
         <v>-4.544095027475365</v>
@@ -5070,22 +5010,22 @@
         <v>45199</v>
       </c>
       <c r="D36">
-        <v>1580.773709865663</v>
+        <v>31.85268566898367</v>
       </c>
       <c r="E36">
-        <v>1620.293052612305</v>
+        <v>30.11197720336914</v>
       </c>
       <c r="F36">
-        <v>1992.903998509211</v>
+        <v>32.07875027552382</v>
       </c>
       <c r="G36">
-        <v>1569.482469080908</v>
+        <v>27.68176920848486</v>
       </c>
       <c r="H36">
-        <v>134011000</v>
+        <v>219937482</v>
       </c>
       <c r="I36" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>7331729300.197901</v>
@@ -5172,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="AL36" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM36">
         <v>-2.905614976749045</v>
@@ -5198,22 +5138,22 @@
         <v>45291</v>
       </c>
       <c r="D37">
-        <v>144.1598878880684</v>
+        <v>35.42452729374924</v>
       </c>
       <c r="E37">
-        <v>152.8968544158936</v>
+        <v>34.32810843658447</v>
       </c>
       <c r="F37">
-        <v>157.4893675024394</v>
+        <v>36.65658664178827</v>
       </c>
       <c r="G37">
-        <v>141.8076302985351</v>
+        <v>32.9830157054723</v>
       </c>
       <c r="H37">
-        <v>229140423</v>
+        <v>219937482</v>
       </c>
       <c r="I37" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>8180429085.017281</v>
@@ -5300,7 +5240,7 @@
         <v>35037431</v>
       </c>
       <c r="AL37" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM37">
         <v>-1.914587820958965</v>
@@ -5326,22 +5266,22 @@
         <v>45382</v>
       </c>
       <c r="D38">
-        <v>4809.33501228645</v>
+        <v>37.88864529726489</v>
       </c>
       <c r="E38">
-        <v>5268.704003417969</v>
+        <v>35.52625647354127</v>
       </c>
       <c r="F38">
-        <v>5896.545729683295</v>
+        <v>38.03558933935374</v>
       </c>
       <c r="G38">
-        <v>4339.857657046905</v>
+        <v>33.92118849985246</v>
       </c>
       <c r="H38">
-        <v>175134528</v>
+        <v>219937482</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>8683493710.165562</v>
@@ -5428,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="AL38" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM38">
         <v>3.498053362185622</v>
@@ -5454,22 +5394,22 @@
         <v>45473</v>
       </c>
       <c r="D39">
-        <v>3344.812269500415</v>
+        <v>38.07435595692174</v>
       </c>
       <c r="E39">
-        <v>3113.497451416016</v>
+        <v>33.51455088233948</v>
       </c>
       <c r="F39">
-        <v>3488.227456712743</v>
+        <v>38.63292937701087</v>
       </c>
       <c r="G39">
-        <v>2914.566707863432</v>
+        <v>30.49368189574821</v>
       </c>
       <c r="H39">
-        <v>104878138</v>
+        <v>219937482</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>8693504179.360001</v>
@@ -5553,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="AL39" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO39">
         <v>0</v>
@@ -5573,22 +5513,22 @@
         <v>45565</v>
       </c>
       <c r="D40">
-        <v>36.14421118184682</v>
+        <v>29.67291729347787</v>
       </c>
       <c r="E40">
-        <v>33.2778978099823</v>
+        <v>29.29673365211487</v>
       </c>
       <c r="F40">
-        <v>36.44804188630448</v>
+        <v>32.37459921573488</v>
       </c>
       <c r="G40">
-        <v>33.12885047684772</v>
+        <v>27.92879195209483</v>
       </c>
       <c r="H40">
-        <v>1299391231</v>
+        <v>219937482</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>6739682733.81</v>
@@ -5675,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="AL40" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM40">
         <v>-3.307815604883692</v>
@@ -5701,22 +5641,22 @@
         <v>45657</v>
       </c>
       <c r="D41">
-        <v>2865.882895130199</v>
+        <v>28.32777701619537</v>
       </c>
       <c r="E41">
-        <v>2758.291954589844</v>
+        <v>29.51332468414307</v>
       </c>
       <c r="F41">
-        <v>3191.4870572918</v>
+        <v>30.63047808910205</v>
       </c>
       <c r="G41">
-        <v>2690.906049725095</v>
+        <v>27.76920140085765</v>
       </c>
       <c r="H41">
-        <v>175134528</v>
+        <v>219937482</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>6473015198.650001</v>
@@ -5803,7 +5743,7 @@
         <v>0</v>
       </c>
       <c r="AL41" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM41">
         <v>-1.561889452297071</v>
@@ -5829,22 +5769,22 @@
         <v>45747</v>
       </c>
       <c r="D42">
-        <v>4154.444877947366</v>
+        <v>21.50516961223284</v>
       </c>
       <c r="E42">
-        <v>4297.901064208984</v>
+        <v>19.1568717880249</v>
       </c>
       <c r="F42">
-        <v>4297.901064208984</v>
+        <v>21.69896131746206</v>
       </c>
       <c r="G42">
-        <v>3527.402515416741</v>
+        <v>17.80602973535555</v>
       </c>
       <c r="H42">
-        <v>913159452</v>
+        <v>219937482</v>
       </c>
       <c r="I42" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>4868230964.48</v>
@@ -5928,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="AL42" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AO42">
         <v>0</v>
@@ -5948,22 +5888,22 @@
         <v>45838</v>
       </c>
       <c r="D43">
-        <v>3398.109</v>
+        <v>23.01272929382325</v>
       </c>
       <c r="E43">
-        <v>3499.925</v>
+        <v>17.08310539722443</v>
       </c>
       <c r="F43">
-        <v>3615.625</v>
+        <v>23.99617973518372</v>
       </c>
       <c r="G43">
-        <v>3343.73</v>
+        <v>16.921125</v>
       </c>
       <c r="H43">
-        <v>52985470</v>
+        <v>219937482</v>
       </c>
       <c r="I43" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>5193995884.48</v>
@@ -6050,7 +5990,7 @@
         <v>0</v>
       </c>
       <c r="AL43" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AM43">
         <v>-1.046551655365489</v>
